--- a/IPC2024_base2010/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/indprod_3_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.3683475818477</v>
+        <v>189.1555133696304</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.43540182041</v>
+        <v>154.8662088965195</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>361.0512740607086</v>
+        <v>360.9778068828741</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>503.9145213458932</v>
+        <v>504.3585931144466</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>550.5826475895069</v>
+        <v>451.2067196777455</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>182.3046927117145</v>
+        <v>175.5114411355273</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.1408724221853</v>
+        <v>153.2271438883801</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>670.75218514448</v>
+        <v>679.7806976730899</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>364.0110533626204</v>
+        <v>427.526694848249</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>119.9629780007655</v>
+        <v>124.0007445230511</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>117.8377062929355</v>
+        <v>120.4108373484636</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>136.5220759967912</v>
+        <v>148.784962366181</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>138.896635859255</v>
+        <v>135.0704277086681</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.0503656328135</v>
+        <v>120.1872841994144</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.4266124114774</v>
+        <v>134.3543500765391</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>129.749472004551</v>
+        <v>130.4577106617738</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>158.2987238025991</v>
+        <v>147.3734049690958</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>128.9559589058384</v>
+        <v>123.7977205496049</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>135.6540476388257</v>
+        <v>137.9186992554033</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>138.5356408694001</v>
+        <v>136.2875980155357</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>134.1355720539999</v>
+        <v>123.4734041370616</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>125.8265098523413</v>
+        <v>127.2479262146952</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>132.3386706271776</v>
+        <v>133.8458597992697</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4086,7 +4086,7 @@
         <v>213</v>
       </c>
       <c r="D203">
-        <v>119.0347297785468</v>
+        <v>117.9235768057259</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>93.46063553284237</v>
+        <v>89.42972257476326</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>95.11240778678798</v>
+        <v>94.93328362358213</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>83.24123278528683</v>
+        <v>79.91158347387535</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>120.5027467771931</v>
+        <v>115.6371775733983</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>114.7323575508408</v>
+        <v>152.0755701445286</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>109.5924861325384</v>
+        <v>111.5284250089595</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>190.963824190853</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4464,7 +4464,7 @@
         <v>240</v>
       </c>
       <c r="D230">
-        <v>86.65886185145244</v>
+        <v>95.24766899810211</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>122.1590971867133</v>
+        <v>130.3208504462872</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>126.5848663850032</v>
+        <v>128.1381991988183</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.9405409952795</v>
+        <v>228.5199792369698</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>112.3364558513073</v>
+        <v>113.179559998933</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>150.8305523746545</v>
+        <v>148.4254112459005</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>131.8996919619463</v>
+        <v>122.3416484559876</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>127.4768366701283</v>
+        <v>143.8894793914073</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>106.8745260369328</v>
+        <v>119.8986618263799</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>119.7225796332061</v>
+        <v>121.4576894829627</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>110.3445067453738</v>
+        <v>108.505431632951</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>141.1194907667752</v>
+        <v>117.5995756389794</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.4464364156198</v>
+        <v>173.1877195199616</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.1290279320484</v>
+        <v>144.8460008955328</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>154.8594070256599</v>
+        <v>154.7201541425013</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>337.515353751729</v>
+        <v>337.6438663129311</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>377.9212125960071</v>
+        <v>309.7093440533088</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>190.1515172579898</v>
+        <v>183.0658680894853</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>163.5938470865042</v>
+        <v>163.7559646010994</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>216.0982738331745</v>
+        <v>219.0070172050556</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1041.331293460008</v>
+        <v>1387.141056099042</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>121.8507261537622</v>
+        <v>127.033202357154</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>116.1883237540192</v>
+        <v>118.7254385158936</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>142.4576924317925</v>
+        <v>155.2537364560397</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>137.343947452983</v>
+        <v>133.5605114616976</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.1820627975494</v>
+        <v>121.4800692782867</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9802571372552</v>
+        <v>141.8970343096635</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6844,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="D400">
-        <v>144.335564</v>
+        <v>144.3355639999999</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.200463</v>
+        <v>134.9329974315118</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>194.1354933872261</v>
+        <v>180.7368246474842</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>139.391864</v>
+        <v>133.81618944</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>137.3659353161155</v>
+        <v>139.4254606641959</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>143.246731</v>
+        <v>140.9222404361056</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>161.6851702670223</v>
+        <v>148.8331399765656</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>132.403463864892</v>
+        <v>133.8991776869692</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>142.3797539376779</v>
+        <v>144.0012997975766</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7992,7 +7992,7 @@
         <v>213</v>
       </c>
       <c r="D482">
-        <v>116.332171</v>
+        <v>115.3751828796349</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>84.35201031316957</v>
+        <v>80.71394804799382</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>91.1689546453666</v>
+        <v>90.9972571445756</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>88.68071557620151</v>
+        <v>85.13348695315344</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>120.4357740866434</v>
+        <v>115.5729090557356</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>113.6412070504635</v>
+        <v>150.6292707918388</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>107.1328382324602</v>
+        <v>109.0253277068273</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>160.5566771405406</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8370,7 +8370,7 @@
         <v>240</v>
       </c>
       <c r="D509">
-        <v>86.240938</v>
+        <v>94.78832448538753</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>121.1143442581525</v>
+        <v>130.3687966599438</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>133.8357877913562</v>
+        <v>135.9355663074318</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.6872454915479</v>
+        <v>294.1459076158856</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.0917724145195</v>
+        <v>112.9330401714664</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>166.9479696161516</v>
+        <v>163.3594043348574</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>139.741615185462</v>
+        <v>131.0746037082511</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>139.3095967606622</v>
+        <v>157.2457073435974</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>102.018291</v>
+        <v>114.4506275376345</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>122.0976699958697</v>
+        <v>123.8672014450852</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>111.7523903583341</v>
+        <v>109.8898505190286</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>143.5371451792424</v>
+        <v>119.6142876493688</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>235.6708199884639</v>
+        <v>235.4464798171392</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>158.0839866230488</v>
+        <v>158.4543080768417</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>232.0313880056249</v>
+        <v>231.9903508041562</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>655.5765073176781</v>
+        <v>655.9424940892457</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1424.774302835238</v>
+        <v>1167.61351320816</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>153.2785564383754</v>
+        <v>147.5669108431231</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>130.6749931971799</v>
+        <v>130.7243167445951</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>458.5960175493339</v>
+        <v>464.7688485616143</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>228.9263430565902</v>
+        <v>245.1314136858173</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>113.7621924391224</v>
+        <v>115.9967327923344</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>153.6933853377023</v>
+        <v>157.0494691862675</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>125.55111</v>
+        <v>136.828546152648</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>175.97069</v>
+        <v>171.1231968683115</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3143563575878</v>
+        <v>120.3820744026223</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.1155706869724</v>
+        <v>123.0562219675084</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.303717</v>
+        <v>102.8621427572505</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>140.923767121705</v>
+        <v>131.1976174090708</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>133.7779403111611</v>
+        <v>128.4268226987147</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>139.19785</v>
+        <v>140.6786898859526</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>143.3102534176958</v>
+        <v>140.9847320640618</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>130.6983843163767</v>
+        <v>120.3094315671929</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>120.063948</v>
+        <v>121.4202667949525</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>117.345154</v>
+        <v>118.6815838180426</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11898,7 +11898,7 @@
         <v>213</v>
       </c>
       <c r="D761">
-        <v>121.101953</v>
+        <v>119.8720098017644</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>95.895421</v>
+        <v>91.75949689756312</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.40810616613385</v>
+        <v>92.23407498475997</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>65.303793</v>
+        <v>62.69164128</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>95.54013683994442</v>
+        <v>91.6824891101854</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>132.472014</v>
+        <v>175.5891492800266</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>107.004161</v>
+        <v>108.8943774056046</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>104.091515027027</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12276,7 +12276,7 @@
         <v>240</v>
       </c>
       <c r="D788">
-        <v>86.240938</v>
+        <v>94.78832448538753</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>123.8097937154755</v>
+        <v>128.1685720448023</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.0997722991755</v>
+        <v>118.1604155663825</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.846198</v>
+        <v>150.569094862262</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>117.9389816780355</v>
+        <v>118.8241337318898</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>138.6237779702873</v>
+        <v>137.0633256471873</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>106.3050482272678</v>
+        <v>94.64672863704784</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>121.131023</v>
+        <v>136.72664221125</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>110.702191</v>
+        <v>124.1927805842294</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>118.4626330765335</v>
+        <v>120.1794828312659</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>101.394609</v>
+        <v>99.70469885000006</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>120.118087</v>
+        <v>100.0984058333333</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>197.5455831197665</v>
+        <v>197.300600424616</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>157.2945740048575</v>
+        <v>158.5960332043463</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>183.6129502911659</v>
+        <v>183.5820560964906</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>492.7339176756342</v>
+        <v>493.3194746422747</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>354.87030652075</v>
+        <v>290.8189490120706</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>182.7357237013673</v>
+        <v>175.9264105421989</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>153.6863358473331</v>
+        <v>153.7380340922969</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>379.7728423202942</v>
+        <v>384.8846912875488</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>334.1799054896418</v>
+        <v>369.722687976566</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>126.4161862037274</v>
+        <v>132.7552126349365</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>132.7244821776499</v>
+        <v>135.6226842698666</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>156.0996339363473</v>
+        <v>170.1210444612632</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>137.725888</v>
+        <v>133.9319306305329</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>132.8811902062081</v>
+        <v>132.8362168294527</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>152.0045974429417</v>
+        <v>141.5136809571375</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>121.2047897679206</v>
+        <v>116.3565981772038</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>139.2660654151207</v>
+        <v>141.5422219768953</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>149.4283818814179</v>
+        <v>147.0035805527133</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>145.611662</v>
+        <v>134.0372826826073</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>118.751265</v>
+        <v>120.103708846776</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15804,7 +15804,7 @@
         <v>213</v>
       </c>
       <c r="D1040">
-        <v>119.559812</v>
+        <v>118.4204699392193</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>101.5623995385276</v>
+        <v>97.18206133496807</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>98.09634017827285</v>
+        <v>97.91159640764535</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>56.54678740810382</v>
+        <v>54.28491591177966</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>142.3538384447969</v>
+        <v>188.6873206990589</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>130.0246891756027</v>
+        <v>132.3215606086058</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>79.85776718243827</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16182,7 +16182,7 @@
         <v>240</v>
       </c>
       <c r="D1067">
-        <v>86.240938</v>
+        <v>94.78832448538753</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>112.9522817982912</v>
+        <v>119.0493974879342</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>121.3046818815116</v>
+        <v>122.5871225051986</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>194.1743572629663</v>
+        <v>193.8176606781056</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>115.4463501240248</v>
+        <v>116.3127945554447</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>134.975971997477</v>
+        <v>133.2306792981555</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>128.3711629209133</v>
+        <v>119.4632915607675</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>126.401999</v>
+        <v>142.67625637125</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>111.0174179032006</v>
+        <v>124.5464222354904</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>149.1183011984245</v>
+        <v>151.2794359984016</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>109.994843</v>
+        <v>108.1615956166666</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>144.4090798921614</v>
+        <v>120.3408999101346</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>266.6806634910677</v>
+        <v>266.4589370971328</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>188.2634515308025</v>
+        <v>190.9441885069879</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1185.938031833411</v>
+        <v>1185.862284424005</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1281.091504378328</v>
+        <v>1282.673676656651</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>2268.923014231685</v>
+        <v>1859.399882896586</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>196.0403651919813</v>
+        <v>188.7352788553245</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>173.386027315511</v>
+        <v>173.4192659392861</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>363.9886138881002</v>
+        <v>368.8880027138737</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>68816.73283002006</v>
+        <v>94254.47583768002</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>123.1617506853808</v>
+        <v>125.859907648932</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>109.351183</v>
+        <v>111.7390003955336</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>129.4239672062838</v>
+        <v>141.0492768255398</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>132.021304</v>
+        <v>128.384491730999</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.4971076135597</v>
+        <v>134.4269805031021</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>155.4600756993977</v>
+        <v>144.730672125592</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>113.551992</v>
+        <v>109.00991232</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>123.9493985050365</v>
+        <v>126.1066384191713</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>131.344615</v>
+        <v>129.2132622210953</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>135.666571</v>
+        <v>124.8827070438013</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19710,7 +19710,7 @@
         <v>213</v>
       </c>
       <c r="D1319">
-        <v>120.643345</v>
+        <v>119.4405846635144</v>
       </c>
     </row>
     <row r="1320" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.9834526095696</v>
+        <v>107.7800885476259</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>63.2661614362411</v>
+        <v>60.73551497879146</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>103.795165410163</v>
+        <v>99.60420235057194</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>97.83783783783781</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20088,7 +20088,7 @@
         <v>240</v>
       </c>
       <c r="D1346">
-        <v>172.481875</v>
+        <v>189.5766478716645</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>123.8887861228343</v>
+        <v>130.4177293061361</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.2880975222803</v>
+        <v>116.3254208623051</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.7687460163293</v>
+        <v>108.5689387874528</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>104.911456</v>
+        <v>105.6988342648451</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>154.419146266456</v>
+        <v>152.4012155252919</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>117.0390406971025</v>
+        <v>106.0073234604627</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>147.333643</v>
+        <v>166.30284953625</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>121.122593</v>
+        <v>135.8830523620072</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>119.0709219294671</v>
+        <v>120.7965874646767</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>116.045569</v>
+        <v>114.1114761833334</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>143.441006</v>
+        <v>119.5341716666667</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>214.7396154780673</v>
+        <v>214.5357359511299</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>146.8974728514659</v>
+        <v>149.5738788479802</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>181.5682141657386</v>
+        <v>181.5492532642597</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>369.1175617820888</v>
+        <v>369.4709545698215</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>645.2525008878497</v>
+        <v>528.789393498163</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>189.3074537561355</v>
+        <v>182.2532570731873</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.2096759293529</v>
+        <v>138.2386986085428</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>714.2935657893058</v>
+        <v>723.9081575128424</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>493.7564418382781</v>
+        <v>595.7222854316457</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>134.4972006744511</v>
+        <v>146.5782057194562</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>131.24278</v>
+        <v>127.6274138578674</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.42121550019</v>
+        <v>118.5281680588738</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.5992063073599</v>
+        <v>126.5465698929389</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.097795</v>
+        <v>124.7751839275792</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>155.4015879558113</v>
+        <v>144.6762210364473</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>135.1906025046558</v>
+        <v>129.7829784044696</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>155.0123597144631</v>
+        <v>158.01719328673</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>148.9909529896731</v>
+        <v>146.5732498985627</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>127.2178145663951</v>
+        <v>117.1055253342237</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>106.4184079959915</v>
+        <v>107.6303944205393</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23616,7 +23616,7 @@
         <v>213</v>
       </c>
       <c r="D1598">
-        <v>120.716922</v>
+        <v>119.5098143233577</v>
       </c>
     </row>
     <row r="1599" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>100.7421894709699</v>
+        <v>96.39722653926488</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.5964111675803</v>
+        <v>100.4069590404477</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>75.53944</v>
+        <v>72.5178624</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>140.808801</v>
+        <v>135.1233292236959</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>109.423694</v>
+        <v>145.0390370039815</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>84.73001351351353</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -23994,7 +23994,7 @@
         <v>240</v>
       </c>
       <c r="D1625">
-        <v>86.240938</v>
+        <v>94.78832448538753</v>
       </c>
     </row>
     <row r="1626" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>133.1664233531853</v>
+        <v>146.2365123596894</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>132.9288761433453</v>
+        <v>134.6016460226385</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>151.0076164695083</v>
+        <v>150.730216807463</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>99.99991900000001</v>
+        <v>100.7504353469172</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>131.3870202558489</v>
+        <v>129.3009725785448</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>138.366731</v>
+        <v>127.7528321250867</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>102.627694</v>
+        <v>115.8410096025</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>122.0651462367667</v>
+        <v>136.940468717233</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>116.784266</v>
+        <v>118.4767915942029</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>108.286879</v>
+        <v>106.4820976833334</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>138.733821</v>
+        <v>115.6115175000001</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>164.3272468152353</v>
+        <v>164.2046574209296</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>147.81993863752</v>
+        <v>149.1095505240672</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>182.5492386334845</v>
+        <v>182.5092530216616</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>403.231279994789</v>
+        <v>403.3692215107249</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>266.651592135556</v>
+        <v>218.5230332105099</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>156.0684712912425</v>
+        <v>150.2528646119951</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.7270789714204</v>
+        <v>138.7629843876063</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>256.9399875884483</v>
+        <v>260.3984718817845</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>137.8476716930342</v>
+        <v>149.0541900096331</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>115.5329338022501</v>
+        <v>118.217555788956</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>118.2738568208291</v>
+        <v>128.8976248530219</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>151.4411192148595</v>
+        <v>147.2693461471443</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>118.9170844875236</v>
+        <v>119.0066675336567</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.2920566407985</v>
+        <v>138.2275570954218</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.1457560426645</v>
+        <v>97.67602702374519</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>135.8791926078336</v>
+        <v>126.5012047983373</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>112.1762166769505</v>
+        <v>107.6891680098726</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>117.8313572309179</v>
+        <v>120.1131251175332</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>123.3777428878007</v>
+        <v>121.3756699808993</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>128.1907695344055</v>
+        <v>118.0011420608885</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>140.0849711797443</v>
+        <v>141.6674601988582</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>121.6511734178279</v>
+        <v>123.0366439721165</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27522,7 +27522,7 @@
         <v>213</v>
       </c>
       <c r="D1877">
-        <v>120.780122</v>
+        <v>119.5692759264949</v>
       </c>
     </row>
     <row r="1878" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>96.55919390001979</v>
+        <v>92.39464158669331</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.8798254700874</v>
+        <v>91.70678919400315</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>61.40003859075949</v>
+        <v>58.94403704712912</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>110.370079</v>
+        <v>105.9136390285882</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>110.0626155939043</v>
+        <v>145.8859154935793</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>130.1555888845191</v>
+        <v>132.45477264608</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>313.5700404634375</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27900,7 +27900,7 @@
         <v>240</v>
       </c>
       <c r="D1904">
-        <v>86.240938</v>
+        <v>94.78832448538753</v>
       </c>
     </row>
     <row r="1905" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>127.906274935207</v>
+        <v>134.1346960336712</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>115.6409597798099</v>
+        <v>116.7371723081324</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.5864324413264</v>
+        <v>208.203261001241</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>125.990257</v>
+        <v>126.9358352402263</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>138.9233338029669</v>
+        <v>137.6382080689825</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>125.0902631206751</v>
+        <v>115.5191526879373</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>123.8066354549285</v>
+        <v>139.7467397697506</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>112.7242289202733</v>
+        <v>126.4612317277619</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>138.7172827167724</v>
+        <v>140.7276781184646</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>113.4534798442948</v>
+        <v>111.5625885135565</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>122.270417</v>
+        <v>101.8920141666666</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>171.5628110962766</v>
+        <v>171.4968053311502</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>169.455214415461</v>
+        <v>170.712710524395</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>286.4893903654347</v>
+        <v>286.405965540685</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>749.7876070468476</v>
+        <v>751.1688447810378</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>419.6091739797465</v>
+        <v>343.8729494418199</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>185.3521130742186</v>
+        <v>178.4453049412968</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>163.7924532371087</v>
+        <v>163.7986963573775</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>679.6520782756638</v>
+        <v>688.800385861849</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>123.9195563514397</v>
+        <v>128.2248118225894</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>115.1488259630486</v>
+        <v>120.8814669391792</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>101.0163</v>
+        <v>98.23358760375613</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.4473645177403</v>
+        <v>127.5819411572142</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.5110865215144</v>
+        <v>131.3824089844177</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.397024</v>
+        <v>110.999627146134</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>152.700587</v>
+        <v>142.1616353334123</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>117.4771291094327</v>
+        <v>112.7780439450554</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>121.474907</v>
+        <v>123.3111782153398</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>152.7663471745365</v>
+        <v>150.2873800804263</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>130.6660960483642</v>
+        <v>120.2797098289236</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>136.2163007113357</v>
+        <v>137.7550867658612</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>117.5092574433724</v>
+        <v>118.847556215756</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31428,7 +31428,7 @@
         <v>213</v>
       </c>
       <c r="D2156">
-        <v>121.236519</v>
+        <v>119.9985609150493</v>
       </c>
     </row>
     <row r="2157" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>89.77235557532909</v>
+        <v>85.90051638546269</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>104.0073971665609</v>
+        <v>103.8115211665921</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>94.67484243385681</v>
+        <v>90.88784873650255</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>130.4857064519637</v>
+        <v>125.2170528168564</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>99.08047211046826</v>
+        <v>100.8307174477338</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>183.4459459459459</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>111.2374262758303</v>
+        <v>112.9202881260805</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.6067816200205</v>
+        <v>127.3302412417768</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.999152</v>
+        <v>88.83566134128802</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>110.8567007299666</v>
+        <v>111.6886990645167</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>138.8868932876614</v>
+        <v>138.0334832645501</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>123.8109497187822</v>
+        <v>110.438514469767</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>109.239935</v>
+        <v>123.30457663125</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>114.6476507084504</v>
+        <v>128.6190490026703</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>124.618676</v>
+        <v>126.4247437681159</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>106.3988343285818</v>
+        <v>104.6255204231055</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>138.652461</v>
+        <v>115.5437175</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>170.9728674151272</v>
+        <v>170.7031022983037</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>166.1829630265292</v>
+        <v>169.2067734731327</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>209.3133685496576</v>
+        <v>209.2733758786736</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>896.3393491562649</v>
+        <v>897.1175611160091</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>672.7662544708387</v>
+        <v>551.3371264398993</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>172.240736</v>
+        <v>165.8224993988943</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.6186791824848</v>
+        <v>137.7429259665289</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6699.387612212923</v>
+        <v>6789.563248357664</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1033.189451256266</v>
+        <v>1055.924322907562</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>118.040458493298</v>
+        <v>119.8827740522911</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>104.59358</v>
+        <v>106.8775092903227</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>141.792937</v>
+        <v>137.8869439722438</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.2527029821949</v>
+        <v>133.176429332696</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>124.743262</v>
+        <v>116.1338438256581</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>127.215154</v>
+        <v>122.12654784</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>139.164136729105</v>
+        <v>141.6363189568066</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>118.721841</v>
+        <v>116.7953202535497</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>120.9406367963273</v>
+        <v>111.3273078504101</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>121.624734</v>
+        <v>122.9986844272781</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>131.2179536935586</v>
+        <v>132.7123791555475</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35334,7 +35334,7 @@
         <v>213</v>
       </c>
       <c r="D2435">
-        <v>120.431713</v>
+        <v>119.2414280399218</v>
       </c>
     </row>
     <row r="2436" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>99.87780979830228</v>
+        <v>95.57012715260636</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.9416141697001</v>
+        <v>96.75904508200652</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>89.76871987376097</v>
+        <v>86.17797107881053</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>116.089789</v>
+        <v>111.4024028835838</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>96.08776400000001</v>
+        <v>127.3625139946914</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>116.1430014949914</v>
+        <v>118.194654484654</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>97.98356793260803</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>111.7324989940479</v>
+        <v>113.8903428224263</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.1091155613599</v>
+        <v>121.2373832006382</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.98786200000001</v>
+        <v>81.83725101929352</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>100.2496039204084</v>
+        <v>101.0019941949868</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>144.1312333853755</v>
+        <v>142.5864005549944</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>108.4166496618314</v>
+        <v>100.4851406125243</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>110.724548</v>
+        <v>124.980333555</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>104.840125</v>
+        <v>117.6163409498208</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>142.016640112362</v>
+        <v>144.0748522879035</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>111.782113</v>
+        <v>109.9190777833334</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>111.813850587697</v>
+        <v>93.17820882308081</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/indprod_3_2024.xlsx
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.8662088965195</v>
+        <v>154.8756051621083</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.1872841994144</v>
+        <v>120.2316415659481</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.3543500765391</v>
+        <v>135.4548634335524</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>151.4160021167002</v>
+        <v>152.7734568811492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.4577106617738</v>
+        <v>130.4695103824118</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>123.4734041370616</v>
+        <v>124.5284163787701</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>127.2479262146952</v>
+        <v>128.2596088288712</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4086,7 +4086,7 @@
         <v>213</v>
       </c>
       <c r="D203">
-        <v>117.9235768057259</v>
+        <v>119.0347297785468</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>94.93328362358213</v>
+        <v>94.93328362358211</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>79.91158347387535</v>
+        <v>79.91158347387537</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>115.6371775733983</v>
+        <v>113.5468896877294</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>190.963824190853</v>
+        <v>195.1840192005957</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4464,7 +4464,7 @@
         <v>240</v>
       </c>
       <c r="D230">
-        <v>95.24766899810211</v>
+        <v>86.65886185145244</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>130.3208504462872</v>
+        <v>131.2578647986423</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.5199792369698</v>
+        <v>281.8546783229497</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>113.179559998933</v>
+        <v>115.7004140605567</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>125.6754496405006</v>
+        <v>117.7639966308485</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>122.3416484559876</v>
+        <v>119.1163055799676</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.8460008955328</v>
+        <v>144.8502240290289</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.4800692782867</v>
+        <v>121.5495325090117</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.8970343096635</v>
+        <v>142.5525793032054</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>154.240145</v>
+        <v>155.6229183976108</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6844,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="D400">
-        <v>144.3355639999999</v>
+        <v>144.335564</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.9329974315118</v>
+        <v>134.9452019356876</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>148.8331399765656</v>
+        <v>150.1048371954492</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>133.8991776869692</v>
+        <v>134.9637409702232</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7992,7 +7992,7 @@
         <v>213</v>
       </c>
       <c r="D482">
-        <v>115.3751828796349</v>
+        <v>116.332171</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>90.9972571445756</v>
+        <v>90.99725714457558</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>85.13348695315344</v>
+        <v>85.13348695315347</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>115.5729090557356</v>
+        <v>113.4837829046119</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>160.5566771405406</v>
+        <v>164.104891</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8370,7 +8370,7 @@
         <v>240</v>
       </c>
       <c r="D509">
-        <v>94.78832448538753</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>130.3687966599438</v>
+        <v>131.4301624900536</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.1459076158856</v>
+        <v>362.7971630660597</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.9330401714664</v>
+        <v>115.4484034845102</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>126.5422230337815</v>
+        <v>118.5762053737496</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>131.0746037082511</v>
+        <v>128.1357152914195</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>158.4543080768417</v>
+        <v>158.4565461898892</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3820744026223</v>
+        <v>120.4266074899301</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.0562219675084</v>
+        <v>124.6635251432403</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>186.684823</v>
+        <v>188.358465144087</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.8621427572505</v>
+        <v>102.8714464966967</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>120.3094315671929</v>
+        <v>121.3374094056875</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>121.4202667949525</v>
+        <v>122.3856166955694</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11898,7 +11898,7 @@
         <v>213</v>
       </c>
       <c r="D761">
-        <v>119.8720098017644</v>
+        <v>121.101953</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.23407498475997</v>
+        <v>92.23407498475996</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>62.69164128</v>
+        <v>62.69164128000001</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>91.6824891101854</v>
+        <v>90.02521244245153</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>104.091515027027</v>
+        <v>106.39188</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12276,7 +12276,7 @@
         <v>240</v>
       </c>
       <c r="D788">
-        <v>94.78832448538753</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>128.1685720448023</v>
+        <v>128.6642903990771</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.569094862262</v>
+        <v>185.7106933909386</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>118.8241337318898</v>
+        <v>121.470709669628</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>116.8152993723668</v>
+        <v>109.4616057557012</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>94.64672863704784</v>
+        <v>90.76237937191169</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.5960332043463</v>
+        <v>158.609254711489</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>132.8362168294527</v>
+        <v>133.6594849927764</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>145.555262</v>
+        <v>146.860174830417</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>134.0372826826073</v>
+        <v>135.1825574489733</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15804,7 +15804,7 @@
         <v>213</v>
       </c>
       <c r="D1040">
-        <v>118.4204699392193</v>
+        <v>119.559812</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.91159640764535</v>
+        <v>97.91159640764533</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>54.28491591177966</v>
+        <v>54.28491591177967</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>79.85776718243827</v>
+        <v>81.62257971685678</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16182,7 +16182,7 @@
         <v>240</v>
       </c>
       <c r="D1067">
-        <v>94.78832448538753</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>119.0493974879342</v>
+        <v>119.7469426465221</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>193.8176606781056</v>
+        <v>239.0531216838844</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>116.3127945554447</v>
+        <v>118.9034353087457</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>133.8274663096259</v>
+        <v>125.4028319507431</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>119.4632915607675</v>
+        <v>116.450437545924</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>190.9441885069879</v>
+        <v>190.974849840629</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.4269805031021</v>
+        <v>135.6169718668262</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>133.759688</v>
+        <v>134.9588527066925</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>124.8827070438013</v>
+        <v>125.9497610027467</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19710,7 +19710,7 @@
         <v>213</v>
       </c>
       <c r="D1319">
-        <v>119.4405846635144</v>
+        <v>120.643345</v>
       </c>
     </row>
     <row r="1320" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>99.60420235057194</v>
+        <v>97.8037307210827</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>97.83783783783781</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20088,7 +20088,7 @@
         <v>240</v>
       </c>
       <c r="D1346">
-        <v>189.5766478716645</v>
+        <v>172.481875</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>130.4177293061361</v>
+        <v>131.1643791196521</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.5689387874528</v>
+        <v>133.9080434891399</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>105.6988342648451</v>
+        <v>108.0530697440071</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>140.816307</v>
+        <v>131.9517149176955</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>106.0073234604627</v>
+        <v>102.3101546004658</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>149.5738788479802</v>
+        <v>149.5799949492063</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.5281680588738</v>
+        <v>118.5655039223772</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.5465698929389</v>
+        <v>127.6121310305785</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>147.215679</v>
+        <v>148.5354775818311</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.7751839275792</v>
+        <v>124.7864696714837</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>117.1055253342237</v>
+        <v>118.1061275583445</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23616,7 +23616,7 @@
         <v>213</v>
       </c>
       <c r="D1598">
-        <v>119.5098143233577</v>
+        <v>120.716922</v>
       </c>
     </row>
     <row r="1599" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>72.5178624</v>
+        <v>72.51786240000003</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>135.1233292236959</v>
+        <v>132.6808045610002</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>84.73001351351353</v>
+        <v>86.60250000000001</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -23994,7 +23994,7 @@
         <v>240</v>
       </c>
       <c r="D1625">
-        <v>94.78832448538753</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1626" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>146.2365123596894</v>
+        <v>147.7541120930589</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>150.730216807463</v>
+        <v>185.9094198838563</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>100.7504353469172</v>
+        <v>102.9944548868149</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>120.6650468947228</v>
+        <v>113.0690060518546</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>127.7528321250867</v>
+        <v>124.1724102119781</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.1095505240672</v>
+        <v>149.1219635978438</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0066675336567</v>
+        <v>119.0607153570201</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.2275570954218</v>
+        <v>139.4543428029498</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>165.128995</v>
+        <v>166.6093876789631</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.67602702374519</v>
+        <v>97.68486168615081</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>118.0011420608885</v>
+        <v>119.0093968367237</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>141.6674601988582</v>
+        <v>142.7937850887101</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27522,7 +27522,7 @@
         <v>213</v>
       </c>
       <c r="D1877">
-        <v>119.5692759264949</v>
+        <v>120.780122</v>
       </c>
     </row>
     <row r="1878" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>58.94403704712912</v>
+        <v>58.94403704712913</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>105.9136390285882</v>
+        <v>103.9991163704402</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>313.5700404634375</v>
+        <v>320.4997651145632</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27900,7 +27900,7 @@
         <v>240</v>
       </c>
       <c r="D1904">
-        <v>94.78832448538753</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1905" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>134.1346960336712</v>
+        <v>134.8465605695217</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.203261001241</v>
+        <v>256.7962037771804</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>126.9358352402263</v>
+        <v>129.7630835157448</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>122.9166231921407</v>
+        <v>115.1788423346107</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>115.5191526879373</v>
+        <v>112.2903763915828</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>170.712710524395</v>
+        <v>170.7205716635787</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.5819411572142</v>
+        <v>127.6275912488018</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.3824089844177</v>
+        <v>132.6959070153016</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.085593</v>
+        <v>88.87528633640846</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.999627146134</v>
+        <v>111.0096669098597</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>120.2797098289236</v>
+        <v>121.3074337115324</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>137.7550867658612</v>
+        <v>138.8503063929394</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31428,7 +31428,7 @@
         <v>213</v>
       </c>
       <c r="D2156">
-        <v>119.9985609150493</v>
+        <v>121.236519</v>
       </c>
     </row>
     <row r="2157" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>90.88784873650255</v>
+        <v>90.88784873650256</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>125.2170528168564</v>
+        <v>122.9535965991006</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>183.4459459459459</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>112.9202881260805</v>
+        <v>113.1104397940958</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.83566134128802</v>
+        <v>109.5691800540146</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>111.6886990645167</v>
+        <v>114.176347105178</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>122.007372</v>
+        <v>114.326829832295</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>110.438514469767</v>
+        <v>105.9782332062678</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>169.2067734731327</v>
+        <v>169.2229794802638</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.176429332696</v>
+        <v>134.3464820768932</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>193.737489</v>
+        <v>195.4743587747861</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>111.3273078504101</v>
+        <v>112.2785383881885</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>122.9986844272781</v>
+        <v>123.9765835121846</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35334,7 +35334,7 @@
         <v>213</v>
       </c>
       <c r="D2435">
-        <v>119.2414280399218</v>
+        <v>120.431713</v>
       </c>
     </row>
     <row r="2436" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.75904508200652</v>
+        <v>96.75904508200649</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>86.17797107881053</v>
+        <v>86.17797107881054</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>111.4024028835838</v>
+        <v>109.3886638935072</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>97.98356793260803</v>
+        <v>100.1489506493507</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>113.8903428224263</v>
+        <v>114.1344974007619</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.83725101929352</v>
+        <v>100.9373978498324</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>101.0019941949868</v>
+        <v>103.2516167178251</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>122.8092657650112</v>
+        <v>115.0782432142341</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>100.4851406125243</v>
+        <v>97.80722195240905</v>
       </c>
     </row>
     <row r="2496" spans="1:4">

--- a/IPC2024_base2010/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/indprod_3_2024.xlsx
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1156.636762777282</v>
+        <v>1186.66367769881</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.0532080220878</v>
+        <v>143.1401210574682</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>135.0704277086681</v>
+        <v>138.896635859255</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>147.3734049690958</v>
+        <v>156.0045393996629</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>124.5284163787701</v>
+        <v>127.9272084734769</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>128.2596088288712</v>
+        <v>125.8265098523413</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>87.50242660301303</v>
+        <v>94.93565576210666</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>89.42972257476326</v>
+        <v>100.8053192272084</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>131.2578647986423</v>
+        <v>139.5842809590689</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.8092657772488</v>
+        <v>113.9457023050519</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>417.9095079164761</v>
+        <v>428.7586644044428</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>177.8900951185263</v>
+        <v>178.1738835753625</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>133.5605114616976</v>
+        <v>137.343947452983</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>180.7368246474842</v>
+        <v>191.321935512049</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>150.1048371954492</v>
+        <v>154.2016943536208</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>134.9637409702232</v>
+        <v>132.403463864892</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>114.377105</v>
+        <v>124.0933067674769</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>80.71394804799382</v>
+        <v>90.98088493190068</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>131.4301624900536</v>
+        <v>140.8902983163722</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.1005</v>
+        <v>116.2157620554495</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1026.432177273483</v>
+        <v>1053.078910847561</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>118.9850640911202</v>
+        <v>118.9944425414833</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>171.1231968683115</v>
+        <v>175.97069</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>131.1976174090708</v>
+        <v>138.8813936851586</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>121.3374094056875</v>
+        <v>124.6491083726596</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>122.3856166955694</v>
+        <v>120.063948</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>66.091302</v>
+        <v>71.70568107793916</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>91.75949689756312</v>
+        <v>103.4314443853274</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>128.6642903990771</v>
+        <v>133.0324742576158</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.5041594642034</v>
+        <v>102.6496016872086</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>546.9424625503324</v>
+        <v>561.1413842157096</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>139.3256170097478</v>
+        <v>139.3684009682326</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>133.9319306305329</v>
+        <v>137.725888</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>141.5136809571375</v>
+        <v>149.8016322626092</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>135.1825574489733</v>
+        <v>138.872136269299</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>68.463735</v>
+        <v>74.2796494963065</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>97.18206133496807</v>
+        <v>109.5437672619387</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.91159640764533</v>
+        <v>97.91159640764532</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>119.7469426465221</v>
+        <v>125.9057835864963</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.3973549957902</v>
+        <v>106.5408060219988</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6642.729406377621</v>
+        <v>6815.178248703104</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.0763456270404</v>
+        <v>132.118041508553</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>128.384491730999</v>
+        <v>132.021304</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>144.730672125592</v>
+        <v>153.2070311240442</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>125.9497610027467</v>
+        <v>129.3873462903029</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>83.28362199999999</v>
+        <v>90.35846862492794</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>131.1643791196521</v>
+        <v>137.75590044395</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.804858</v>
+        <v>128.973125381922</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>895.2112942785864</v>
+        <v>918.4514628735652</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>137.8011186670539</v>
+        <v>137.8412564913463</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>127.6274138578674</v>
+        <v>131.24278</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>144.6762210364473</v>
+        <v>153.1493910289155</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>118.1061275583445</v>
+        <v>121.3296341631403</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>100.644007</v>
+        <v>109.1935980977932</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>96.39722653926488</v>
+        <v>108.659100287205</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>147.7541120930589</v>
+        <v>161.2136585000516</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.138971</v>
+        <v>113.2862626710348</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>377.1609211412235</v>
+        <v>386.9522223131141</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>134.2814867481194</v>
+        <v>134.3213047612726</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>147.2693461471443</v>
+        <v>151.4411192148595</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>126.5012047983373</v>
+        <v>133.9099289468505</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>119.0093968367237</v>
+        <v>122.2575566457601</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>142.7937850887101</v>
+        <v>140.0849711797443</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>53.008748</v>
+        <v>57.51177936287055</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>92.39464158669331</v>
+        <v>104.14738044439</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.70678919400315</v>
+        <v>91.70678919400314</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>134.8465605695217</v>
+        <v>141.128381161896</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>114.9703928250578</v>
+        <v>115.1303002123044</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>192.1312103446807</v>
+        <v>197.1190403120919</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>183.7879396127016</v>
+        <v>183.9551562212628</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>98.23358760375613</v>
+        <v>101.0163</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>142.1616353334123</v>
+        <v>150.4875350144928</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>121.3074337115324</v>
+        <v>124.6183145427304</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>138.8503063929394</v>
+        <v>136.2163007113357</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>53.882335</v>
+        <v>58.45957656038731</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>85.90051638546269</v>
+        <v>96.82719264592933</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>113.1104397940958</v>
+        <v>114.7823782226171</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.5886521851069</v>
+        <v>100.7218984110108</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1425.06757883357</v>
+        <v>1462.063102686986</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>135.1464990004195</v>
+        <v>135.2694400251746</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>137.8869439722438</v>
+        <v>141.792937</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>116.1338438256581</v>
+        <v>122.9353886376812</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>112.2785383881885</v>
+        <v>115.342990822228</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>123.9765835121846</v>
+        <v>121.624734</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>60.546817</v>
+        <v>65.69019853908075</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>95.57012715260636</v>
+        <v>107.7267926013007</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.75904508200649</v>
+        <v>96.75904508200648</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>114.1344974007619</v>
+        <v>116.2822503797276</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.4722203542584</v>
+        <v>112.6282316450168</v>
       </c>
     </row>
     <row r="2476" spans="1:4">

--- a/IPC2024_base2010/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/indprod_3_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.1555133696304</v>
+        <v>189.3683475818477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.8756051621083</v>
+        <v>153.43540182041</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.9778068828741</v>
+        <v>361.0512740607086</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>504.3585931144466</v>
+        <v>503.9145213458932</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>451.2067196777455</v>
+        <v>550.5826475895069</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1186.66367769881</v>
+        <v>1156.636762777282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>175.5114411355273</v>
+        <v>182.3046927117145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.2271438883801</v>
+        <v>153.1408724221853</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>679.7806976730899</v>
+        <v>670.75218514448</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>427.526694848249</v>
+        <v>364.0110533626204</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.1401210574682</v>
+        <v>143.0532080220878</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>124.0007445230511</v>
+        <v>119.9629780007655</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>120.4108373484636</v>
+        <v>117.8377062929355</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>148.784962366181</v>
+        <v>136.5220759967912</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2316415659481</v>
+        <v>120.0503656328135</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>135.4548634335524</v>
+        <v>134.4266124114774</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>152.7734568811492</v>
+        <v>151.4160021167002</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.4695103824118</v>
+        <v>129.749472004551</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>156.0045393996629</v>
+        <v>158.2987238025991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>123.7977205496049</v>
+        <v>128.9559589058384</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>137.9186992554033</v>
+        <v>135.6540476388257</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>136.2875980155357</v>
+        <v>138.5356408694001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>127.9272084734769</v>
+        <v>134.1355720539999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>133.8458597992697</v>
+        <v>132.3386706271776</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>87.50242660301303</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>100.8053192272084</v>
+        <v>93.46063553284237</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>94.93328362358211</v>
+        <v>95.11240778678798</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>79.91158347387537</v>
+        <v>83.24123278528683</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>113.5468896877294</v>
+        <v>120.5027467771931</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>152.0755701445286</v>
+        <v>114.7323575508408</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>111.5284250089595</v>
+        <v>109.5924861325384</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>139.5842809590689</v>
+        <v>122.1590971867133</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.1381991988183</v>
+        <v>126.5848663850032</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>281.8546783229497</v>
+        <v>228.9405409952795</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9457023050519</v>
+        <v>113.8092657772488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.7004140605567</v>
+        <v>112.3364558513073</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>148.4254112459005</v>
+        <v>150.8305523746545</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>119.1163055799676</v>
+        <v>131.8996919619463</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>143.8894793914073</v>
+        <v>127.4768366701283</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>119.8986618263799</v>
+        <v>106.8745260369328</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>121.4576894829627</v>
+        <v>119.7225796332061</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>108.505431632951</v>
+        <v>110.3445067453738</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>117.5995756389794</v>
+        <v>141.1194907667752</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.1877195199616</v>
+        <v>173.4464364156198</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.8502240290289</v>
+        <v>144.1290279320484</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>154.7201541425013</v>
+        <v>154.8594070256599</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>337.6438663129311</v>
+        <v>337.515353751729</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>309.7093440533088</v>
+        <v>377.9212125960071</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>428.7586644044428</v>
+        <v>417.9095079164761</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>183.0658680894853</v>
+        <v>190.1515172579898</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>163.7559646010994</v>
+        <v>163.5938470865042</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>219.0070172050556</v>
+        <v>216.0982738331745</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1387.141056099042</v>
+        <v>1041.331293460008</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>178.1738835753625</v>
+        <v>177.8900951185263</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>127.033202357154</v>
+        <v>121.8507261537622</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>118.7254385158936</v>
+        <v>116.1883237540192</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>155.2537364560397</v>
+        <v>142.4576924317925</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.5495325090117</v>
+        <v>121.1820627975494</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>142.5525793032054</v>
+        <v>141.9802571372552</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>155.6229183976108</v>
+        <v>154.240145</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.9452019356876</v>
+        <v>134.200463</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>191.321935512049</v>
+        <v>194.1354933872261</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>133.81618944</v>
+        <v>139.391864</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>139.4254606641959</v>
+        <v>137.3659353161155</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>140.9222404361056</v>
+        <v>143.246731</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>154.2016943536208</v>
+        <v>161.6851702670223</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>144.0012997975766</v>
+        <v>142.3797539376779</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>114.377105</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>90.98088493190068</v>
+        <v>84.35201031316957</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>90.99725714457558</v>
+        <v>91.1689546453666</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>85.13348695315347</v>
+        <v>88.68071557620151</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>113.4837829046119</v>
+        <v>120.4357740866434</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>150.6292707918388</v>
+        <v>113.6412070504635</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>109.0253277068273</v>
+        <v>107.1328382324602</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>140.8902983163722</v>
+        <v>121.1143442581525</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>135.9355663074318</v>
+        <v>133.8357877913562</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>362.7971630660597</v>
+        <v>294.6872454915479</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.4484034845102</v>
+        <v>112.0917724145195</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>163.3594043348574</v>
+        <v>166.9479696161516</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>128.1357152914195</v>
+        <v>139.741615185462</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>157.2457073435974</v>
+        <v>139.3095967606622</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>114.4506275376345</v>
+        <v>102.018291</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>123.8672014450852</v>
+        <v>122.0976699958697</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>109.8898505190286</v>
+        <v>111.7523903583341</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>119.6142876493688</v>
+        <v>143.5371451792424</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>235.4464798171392</v>
+        <v>235.6708199884639</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>158.4565461898892</v>
+        <v>158.0839866230488</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>231.9903508041562</v>
+        <v>232.0313880056249</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>655.9424940892457</v>
+        <v>655.5765073176781</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1167.61351320816</v>
+        <v>1424.774302835238</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1053.078910847561</v>
+        <v>1026.432177273483</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>147.5669108431231</v>
+        <v>153.2785564383754</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>130.7243167445951</v>
+        <v>130.6749931971799</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>464.7688485616143</v>
+        <v>458.5960175493339</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>245.1314136858173</v>
+        <v>228.9263430565902</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>118.9944425414833</v>
+        <v>118.9850640911202</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>115.9967327923344</v>
+        <v>113.7621924391224</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>157.0494691862675</v>
+        <v>153.6933853377023</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>136.828546152648</v>
+        <v>125.55111</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.4266074899301</v>
+        <v>120.3143563575878</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>124.6635251432403</v>
+        <v>123.1155706869724</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>188.358465144087</v>
+        <v>186.684823</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.8714464966967</v>
+        <v>102.303717</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>138.8813936851586</v>
+        <v>140.923767121705</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>128.4268226987147</v>
+        <v>133.7779403111611</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>140.6786898859526</v>
+        <v>139.19785</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>140.9847320640618</v>
+        <v>143.3102534176958</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>124.6491083726596</v>
+        <v>130.6983843163767</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>118.6815838180426</v>
+        <v>117.345154</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>66.091302</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>103.4314443853274</v>
+        <v>95.895421</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.23407498475996</v>
+        <v>92.40810616613385</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>62.69164128000001</v>
+        <v>65.303793</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>90.02521244245153</v>
+        <v>95.54013683994442</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>175.5891492800266</v>
+        <v>132.472014</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>108.8943774056046</v>
+        <v>107.004161</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>133.0324742576158</v>
+        <v>123.8097937154755</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>118.1604155663825</v>
+        <v>117.0997722991755</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>185.7106933909386</v>
+        <v>150.846198</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6496016872086</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.470709669628</v>
+        <v>117.9389816780355</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>137.0633256471873</v>
+        <v>138.6237779702873</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>90.76237937191169</v>
+        <v>106.3050482272678</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>136.72664221125</v>
+        <v>121.131023</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>124.1927805842294</v>
+        <v>110.702191</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>120.1794828312659</v>
+        <v>118.4626330765335</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>99.70469885000006</v>
+        <v>101.394609</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>100.0984058333333</v>
+        <v>120.118087</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>197.300600424616</v>
+        <v>197.5455831197665</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.609254711489</v>
+        <v>157.2945740048575</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>183.5820560964906</v>
+        <v>183.6129502911659</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>493.3194746422747</v>
+        <v>492.7339176756342</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>290.8189490120706</v>
+        <v>354.87030652075</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>561.1413842157096</v>
+        <v>546.9424625503324</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>175.9264105421989</v>
+        <v>182.7357237013673</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>153.7380340922969</v>
+        <v>153.6863358473331</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>384.8846912875488</v>
+        <v>379.7728423202942</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>369.722687976566</v>
+        <v>334.1799054896418</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>139.3684009682326</v>
+        <v>139.3256170097478</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>132.7552126349365</v>
+        <v>126.4161862037274</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>135.6226842698666</v>
+        <v>132.7244821776499</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>170.1210444612632</v>
+        <v>156.0996339363473</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.6594849927764</v>
+        <v>132.8811902062081</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>146.860174830417</v>
+        <v>145.555262</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>149.8016322626092</v>
+        <v>152.0045974429417</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>116.3565981772038</v>
+        <v>121.2047897679206</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>141.5422219768953</v>
+        <v>139.2660654151207</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>147.0035805527133</v>
+        <v>149.4283818814179</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>138.872136269299</v>
+        <v>145.611662</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>120.103708846776</v>
+        <v>118.751265</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>68.463735</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>109.5437672619387</v>
+        <v>101.5623995385276</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.91159640764532</v>
+        <v>98.09634017827285</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>54.28491591177967</v>
+        <v>56.54678740810382</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>188.6873206990589</v>
+        <v>142.3538384447969</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>132.3215606086058</v>
+        <v>130.0246891756027</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>125.9057835864963</v>
+        <v>112.9522817982912</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>122.5871225051986</v>
+        <v>121.3046818815116</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>239.0531216838844</v>
+        <v>194.1743572629663</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>118.9034353087457</v>
+        <v>115.4463501240248</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>133.2306792981555</v>
+        <v>134.975971997477</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>116.450437545924</v>
+        <v>128.3711629209133</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>142.67625637125</v>
+        <v>126.401999</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>124.5464222354904</v>
+        <v>111.0174179032006</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>151.2794359984016</v>
+        <v>149.1183011984245</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>108.1615956166666</v>
+        <v>109.994843</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>120.3408999101346</v>
+        <v>144.4090798921614</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>266.4589370971328</v>
+        <v>266.6806634910677</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>190.974849840629</v>
+        <v>188.2634515308025</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1185.862284424005</v>
+        <v>1185.938031833411</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1282.673676656651</v>
+        <v>1281.091504378328</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>1859.399882896586</v>
+        <v>2268.923014231685</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6815.178248703104</v>
+        <v>6642.729406377621</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>188.7352788553245</v>
+        <v>196.0403651919813</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>173.4192659392861</v>
+        <v>173.386027315511</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>368.8880027138737</v>
+        <v>363.9886138881002</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>94254.47583768002</v>
+        <v>68816.73283002006</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.118041508553</v>
+        <v>132.0763456270404</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>125.859907648932</v>
+        <v>123.1617506853808</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>111.7390003955336</v>
+        <v>109.351183</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>141.0492768255398</v>
+        <v>129.4239672062838</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>135.6169718668262</v>
+        <v>134.4971076135597</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>134.9588527066925</v>
+        <v>133.759688</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>153.2070311240442</v>
+        <v>155.4600756993977</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>109.00991232</v>
+        <v>113.551992</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>126.1066384191713</v>
+        <v>123.9493985050365</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>129.2132622210953</v>
+        <v>131.344615</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>129.3873462903029</v>
+        <v>135.666571</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>83.28362199999999</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.7800885476259</v>
+        <v>107.9834526095696</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>60.73551497879146</v>
+        <v>63.2661614362411</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>97.8037307210827</v>
+        <v>103.795165410163</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>137.75590044395</v>
+        <v>123.8887861228343</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>116.3254208623051</v>
+        <v>115.2880975222803</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>133.9080434891399</v>
+        <v>108.7687460163293</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>108.0530697440071</v>
+        <v>104.911456</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>152.4012155252919</v>
+        <v>154.419146266456</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>102.3101546004658</v>
+        <v>117.0390406971025</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>166.30284953625</v>
+        <v>147.333643</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>135.8830523620072</v>
+        <v>121.122593</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>120.7965874646767</v>
+        <v>119.0709219294671</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>114.1114761833334</v>
+        <v>116.045569</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>119.5341716666667</v>
+        <v>143.441006</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>214.5357359511299</v>
+        <v>214.7396154780673</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>149.5799949492063</v>
+        <v>146.8974728514659</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>181.5492532642597</v>
+        <v>181.5682141657386</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>369.4709545698215</v>
+        <v>369.1175617820888</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>528.789393498163</v>
+        <v>645.2525008878497</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>918.4514628735652</v>
+        <v>895.2112942785864</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>182.2532570731873</v>
+        <v>189.3074537561355</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.2386986085428</v>
+        <v>138.2096759293529</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>723.9081575128424</v>
+        <v>714.2935657893058</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>595.7222854316457</v>
+        <v>493.7564418382781</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>137.8412564913463</v>
+        <v>137.8011186670539</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>146.5782057194562</v>
+        <v>134.4972006744511</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.5655039223772</v>
+        <v>118.42121550019</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>127.6121310305785</v>
+        <v>126.5992063073599</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>148.5354775818311</v>
+        <v>147.215679</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.7864696714837</v>
+        <v>124.097795</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>153.1493910289155</v>
+        <v>155.4015879558113</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>129.7829784044696</v>
+        <v>135.1906025046558</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>158.01719328673</v>
+        <v>155.0123597144631</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>146.5732498985627</v>
+        <v>148.9909529896731</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>121.3296341631403</v>
+        <v>127.2178145663951</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>107.6303944205393</v>
+        <v>106.4184079959915</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>100.644007</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>108.659100287205</v>
+        <v>100.7421894709699</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.4069590404477</v>
+        <v>100.5964111675803</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>72.51786240000003</v>
+        <v>75.53944</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>132.6808045610002</v>
+        <v>140.808801</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>145.0390370039815</v>
+        <v>109.423694</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>161.2136585000516</v>
+        <v>133.1664233531853</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>134.6016460226385</v>
+        <v>132.9288761433453</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>185.9094198838563</v>
+        <v>151.0076164695083</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>102.9944548868149</v>
+        <v>99.99991900000001</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>129.3009725785448</v>
+        <v>131.3870202558489</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>124.1724102119781</v>
+        <v>138.366731</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>115.8410096025</v>
+        <v>102.627694</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>136.940468717233</v>
+        <v>122.0651462367667</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>118.4767915942029</v>
+        <v>116.784266</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>106.4820976833334</v>
+        <v>108.286879</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>115.6115175000001</v>
+        <v>138.733821</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>164.2046574209296</v>
+        <v>164.3272468152353</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.1219635978438</v>
+        <v>147.81993863752</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>182.5092530216616</v>
+        <v>182.5492386334845</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>403.3692215107249</v>
+        <v>403.231279994789</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>218.5230332105099</v>
+        <v>266.651592135556</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>386.9522223131141</v>
+        <v>377.1609211412235</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>150.2528646119951</v>
+        <v>156.0684712912425</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.7629843876063</v>
+        <v>138.7270789714204</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>260.3984718817845</v>
+        <v>256.9399875884483</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>149.0541900096331</v>
+        <v>137.8476716930342</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>134.3213047612726</v>
+        <v>134.2814867481194</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>118.217555788956</v>
+        <v>115.5329338022501</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>128.8976248530219</v>
+        <v>118.2738568208291</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0607153570201</v>
+        <v>118.9170844875236</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>139.4543428029498</v>
+        <v>138.2920566407985</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>166.6093876789631</v>
+        <v>165.128995</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.68486168615081</v>
+        <v>97.1457560426645</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>133.9099289468505</v>
+        <v>135.8791926078336</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>107.6891680098726</v>
+        <v>112.1762166769505</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>120.1131251175332</v>
+        <v>117.8313572309179</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>121.3756699808993</v>
+        <v>123.3777428878007</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>122.2575566457601</v>
+        <v>128.1907695344055</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>123.0366439721165</v>
+        <v>121.6511734178279</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>53.008748</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>104.14738044439</v>
+        <v>96.55919390001979</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.70678919400314</v>
+        <v>91.8798254700874</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>58.94403704712913</v>
+        <v>61.40003859075949</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>103.9991163704402</v>
+        <v>110.370079</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>145.8859154935793</v>
+        <v>110.0626155939043</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>132.45477264608</v>
+        <v>130.1555888845191</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>141.128381161896</v>
+        <v>127.906274935207</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>116.7371723081324</v>
+        <v>115.6409597798099</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>256.7962037771804</v>
+        <v>208.5864324413264</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>129.7630835157448</v>
+        <v>125.990257</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>137.6382080689825</v>
+        <v>138.9233338029669</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>112.2903763915828</v>
+        <v>125.0902631206751</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>139.7467397697506</v>
+        <v>123.8066354549285</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>126.4612317277619</v>
+        <v>112.7242289202733</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>140.7276781184646</v>
+        <v>138.7172827167724</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>111.5625885135565</v>
+        <v>113.4534798442948</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>101.8920141666666</v>
+        <v>122.270417</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>171.4968053311502</v>
+        <v>171.5628110962766</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>170.7205716635787</v>
+        <v>169.455214415461</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>286.405965540685</v>
+        <v>286.4893903654347</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>751.1688447810378</v>
+        <v>749.7876070468476</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>343.8729494418199</v>
+        <v>419.6091739797465</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>197.1190403120919</v>
+        <v>192.1312103446807</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>178.4453049412968</v>
+        <v>185.3521130742186</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>163.7986963573775</v>
+        <v>163.7924532371087</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>688.800385861849</v>
+        <v>679.6520782756638</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>128.2248118225894</v>
+        <v>123.9195563514397</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>183.9551562212628</v>
+        <v>183.7879396127016</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>120.8814669391792</v>
+        <v>115.1488259630486</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.6275912488018</v>
+        <v>127.4473645177403</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>132.6959070153016</v>
+        <v>131.5110865215144</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.87528633640846</v>
+        <v>88.085593</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>111.0096669098597</v>
+        <v>110.397024</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>150.4875350144928</v>
+        <v>152.700587</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>112.7780439450554</v>
+        <v>117.4771291094327</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>123.3111782153398</v>
+        <v>121.474907</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>150.2873800804263</v>
+        <v>152.7663471745365</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>124.6183145427304</v>
+        <v>130.6660960483642</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>118.847556215756</v>
+        <v>117.5092574433724</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>53.882335</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>96.82719264592933</v>
+        <v>89.77235557532909</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>103.8115211665921</v>
+        <v>104.0073971665609</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>90.88784873650256</v>
+        <v>94.67484243385681</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>122.9535965991006</v>
+        <v>130.4857064519637</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>100.8307174477338</v>
+        <v>99.08047211046826</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>114.7823782226171</v>
+        <v>111.2374262758303</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.3302412417768</v>
+        <v>126.6067816200205</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>109.5691800540146</v>
+        <v>88.999152</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>114.176347105178</v>
+        <v>110.8567007299666</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>138.0334832645501</v>
+        <v>138.8868932876614</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>105.9782332062678</v>
+        <v>123.8109497187822</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>123.30457663125</v>
+        <v>109.239935</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>128.6190490026703</v>
+        <v>114.6476507084504</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>126.4247437681159</v>
+        <v>124.618676</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>104.6255204231055</v>
+        <v>106.3988343285818</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>115.5437175</v>
+        <v>138.652461</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>170.7031022983037</v>
+        <v>170.9728674151272</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>169.2229794802638</v>
+        <v>166.1829630265292</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>209.2733758786736</v>
+        <v>209.3133685496576</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>897.1175611160091</v>
+        <v>896.3393491562649</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>551.3371264398993</v>
+        <v>672.7662544708387</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1462.063102686986</v>
+        <v>1425.06757883357</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>165.8224993988943</v>
+        <v>172.240736</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.7429259665289</v>
+        <v>137.6186791824848</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6789.563248357664</v>
+        <v>6699.387612212923</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1055.924322907562</v>
+        <v>1033.189451256266</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>135.2694400251746</v>
+        <v>135.1464990004195</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>119.8827740522911</v>
+        <v>118.040458493298</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>106.8775092903227</v>
+        <v>104.59358</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>134.3464820768932</v>
+        <v>133.2527029821949</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>195.4743587747861</v>
+        <v>193.737489</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>122.9353886376812</v>
+        <v>124.743262</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>122.12654784</v>
+        <v>127.215154</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>141.6363189568066</v>
+        <v>139.164136729105</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>116.7953202535497</v>
+        <v>118.721841</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>115.342990822228</v>
+        <v>120.9406367963273</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>132.7123791555475</v>
+        <v>131.2179536935586</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>60.546817</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>107.7267926013007</v>
+        <v>99.87780979830228</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.75904508200648</v>
+        <v>96.9416141697001</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>86.17797107881054</v>
+        <v>89.76871987376097</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>109.3886638935072</v>
+        <v>116.089789</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>127.3625139946914</v>
+        <v>96.08776400000001</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>118.194654484654</v>
+        <v>116.1430014949914</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>116.2822503797276</v>
+        <v>111.7324989940479</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>121.2373832006382</v>
+        <v>120.1091155613599</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>100.9373978498324</v>
+        <v>81.98786200000001</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6282316450168</v>
+        <v>112.4722203542584</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>103.2516167178251</v>
+        <v>100.2496039204084</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>142.5864005549944</v>
+        <v>144.1312333853755</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>97.80722195240905</v>
+        <v>108.4166496618314</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>124.980333555</v>
+        <v>110.724548</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>117.6163409498208</v>
+        <v>104.840125</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>144.0748522879035</v>
+        <v>142.016640112362</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>109.9190777833334</v>
+        <v>111.782113</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>93.17820882308081</v>
+        <v>111.813850587697</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/indprod_3_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.3113098167185</v>
+        <v>193.3100812424383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.43540182041</v>
+        <v>153.4347474622764</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>299.0043085279967</v>
+        <v>299.0792240926224</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>503.9145213458932</v>
+        <v>503.9158482512168</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5610361360111</v>
+        <v>121.5607776571308</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.7612661754542</v>
+        <v>134.7615432642264</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3771149940649</v>
+        <v>137.393320384174</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.8960724908421</v>
+        <v>126.8960259775814</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.0782610930911</v>
+        <v>113.0695572112354</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.53581226880567</v>
+        <v>92.53647473645883</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.3576113645809</v>
+        <v>154.364063989347</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>184.7422919563725</v>
+        <v>184.7384791105083</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.1290279320484</v>
+        <v>144.1268951287383</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>358.3921567317849</v>
+        <v>358.5467506698348</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.5610643472615</v>
+        <v>144.5618264250247</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6777574705251</v>
+        <v>147.7244763023088</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.489293153507</v>
+        <v>123.489127220127</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.2179654763204</v>
+        <v>112.2133424605945</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.5213655372271</v>
+        <v>90.52309074094153</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>157.7482998204461</v>
+        <v>157.7701821410967</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.3424193574673</v>
+        <v>111.3414486336268</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.7061729307439</v>
+        <v>111.7027507089453</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4909921938656</v>
+        <v>113.4803010205773</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0566291919473</v>
+        <v>119.054431503659</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.033612926078</v>
+        <v>114.0209100027713</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>403.231279994789</v>
+        <v>403.2393251153003</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9260097575426</v>
+        <v>114.9087762820512</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.8364051746395</v>
+        <v>114.8198386606316</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
